--- a/Search criteria for payors.xlsx
+++ b/Search criteria for payors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\multisearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2640938B-003C-4525-ADDE-24C951846D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0948B76-1869-4D2F-B667-6F4829E234AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>Eligibility Status</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Input not get</t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -235,6 +232,21 @@
   </si>
   <si>
     <t>Progress</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Birthdate issue</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
   </si>
 </sst>
 </file>
@@ -333,7 +345,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,8 +382,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -379,11 +397,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,24 +425,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1025,265 +1066,296 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7B6FD9-B10F-4FBF-B926-1630F6F67D15}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="53" customWidth="1"/>
-    <col min="6" max="6" width="76.85546875" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
+    <col min="7" max="7" width="76.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>3</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>8</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>10</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>11</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>7</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>12</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>3</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="B12" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>5</v>
+      </c>
+      <c r="B13" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
-        <v>4</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
-        <v>6</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>8</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>12</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>2</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="22"/>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="12"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="B2:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
